--- a/backend/pdf_processing/extracted/tables/fileoutpart6.xlsx
+++ b/backend/pdf_processing/extracted/tables/fileoutpart6.xlsx
@@ -14,47 +14,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Out: _x000D_</t>
-  </si>
-  <si>
-    <t>In: _x000D_</t>
-  </si>
-  <si>
-    <t>Block time: _x000D_</t>
-  </si>
-  <si>
-    <t>Off: _x000D_</t>
-  </si>
-  <si>
-    <t>On: _x000D_</t>
-  </si>
-  <si>
-    <t>Flight time: _x000D_</t>
-  </si>
-  <si>
-    <t>Start: _x000D_</t>
-  </si>
-  <si>
-    <t>Stop: _x000D_</t>
-  </si>
-  <si>
-    <t>Hobbs time: _x000D_</t>
-  </si>
-  <si>
-    <t>Rem: _x000D_</t>
-  </si>
-  <si>
-    <t>Fuel used: _x000D_</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+  <si>
+    <t>Block Fuel _x000D_</t>
+  </si>
+  <si>
+    <t>31.0 g _x000D_</t>
+  </si>
+  <si>
+    <t>Taxi Fuel _x000D_</t>
+  </si>
+  <si>
+    <t>1.0 g _x000D_</t>
+  </si>
+  <si>
+    <t>Flight Fuel _x000D_</t>
+  </si>
+  <si>
+    <t>9.1 g _x000D_</t>
+  </si>
+  <si>
+    <t>Reserve Fuel Min: 8.0 g _x000D_</t>
+  </si>
+  <si>
+    <t>8.0 g _x000D_</t>
+  </si>
+  <si>
+    <t>Alternate Fuel LFPN _x000D_</t>
+  </si>
+  <si>
+    <t>7.6 g _x000D_</t>
+  </si>
+  <si>
+    <t>Extra Fuel _x000D_</t>
+  </si>
+  <si>
+    <t>6.3 g _x000D_</t>
+  </si>
+  <si>
+    <t>Ballast Fuel _x000D_</t>
+  </si>
+  <si>
+    <t>0.0 g _x000D_</t>
+  </si>
+  <si>
+    <t>Additional _x000D_</t>
+  </si>
+  <si>
+    <t>Payload _x000D_</t>
+  </si>
+  <si>
+    <t>230 kg _x000D_</t>
+  </si>
+  <si>
+    <t>ZFW _x000D_</t>
+  </si>
+  <si>
+    <t>1014 kg _x000D_</t>
+  </si>
+  <si>
+    <t>TOW _x000D_</t>
+  </si>
+  <si>
+    <t>1096 kg _x000D_</t>
+  </si>
+  <si>
+    <t>ELW _x000D_</t>
+  </si>
+  <si>
+    <t>1074 kg _x000D_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -70,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,17 +122,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,59 +440,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="37" customHeight="1">
+    <row r="1" spans="1:2" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="20" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="36" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="20" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="36" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="37" customHeight="1">
+    <row r="4" spans="1:2" ht="32" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="20" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="20" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="20" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="21" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
